--- a/templates/Excel/ST1/ST1_Line_Setup.xlsx
+++ b/templates/Excel/ST1/ST1_Line_Setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,45 +954,29 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1017,6 +1001,244 @@
       <c r="Y5" t="inlineStr">
         <is>
           <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-05T11:44</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SHIFT_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="n">
+        <v>100</v>
+      </c>
+      <c r="O6" t="n">
+        <v>100</v>
+      </c>
+      <c r="P6" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>100</v>
+      </c>
+      <c r="R6" t="n">
+        <v>100</v>
+      </c>
+      <c r="S6" t="n">
+        <v>100</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-13T12:54</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/templates/Excel/ST1/ST1_Line_Setup.xlsx
+++ b/templates/Excel/ST1/ST1_Line_Setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,69 +1176,513 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>4</t>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-05T16:54</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5644</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65464</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>65464</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>654</v>
+      </c>
+      <c r="N8" t="n">
+        <v>654</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>64</v>
+      </c>
+      <c r="R8" t="n">
+        <v>64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>646</v>
+      </c>
+      <c r="T8" t="n">
+        <v>464</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-31T16:56</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>87</v>
+      </c>
+      <c r="N9" t="n">
+        <v>87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>87</v>
+      </c>
+      <c r="R9" t="n">
+        <v>87</v>
+      </c>
+      <c r="S9" t="n">
+        <v>87</v>
+      </c>
+      <c r="T9" t="n">
+        <v>87</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-04T17:12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-06T17:27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SHIFT_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
